--- a/LOGS/39b47cb4-af4d-4cc7-ac2a-0c79a3780657/main_page_service_output/notes_standard_cropped_df.xlsx
+++ b/LOGS/39b47cb4-af4d-4cc7-ac2a-0c79a3780657/main_page_service_output/notes_standard_cropped_df.xlsx
@@ -26,13 +26,15 @@
     <sheet name="23__660e0c35-32e1-3b" sheetId="17" r:id="rId17"/>
     <sheet name="25__fefa94a6-9f06-3a" sheetId="18" r:id="rId18"/>
     <sheet name="26__77f9a90f-5d0c-3b" sheetId="19" r:id="rId19"/>
+    <sheet name="4__c09fe481-4d79-3ba" sheetId="20" r:id="rId20"/>
+    <sheet name="6__45029265-bfb6-3df" sheetId="21" r:id="rId21"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="102">
   <si>
     <t>line_item_0</t>
   </si>
@@ -308,6 +310,36 @@
   </si>
   <si>
     <t>Retained profits at the end of the financial year</t>
+  </si>
+  <si>
+    <t>Service revenue</t>
+  </si>
+  <si>
+    <t>Minor works</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>Aggregate income tax benefit</t>
+  </si>
+  <si>
+    <t>increase in deferred tax assets (note 16)</t>
+  </si>
+  <si>
+    <t>Loss before income tax benefit</t>
+  </si>
+  <si>
+    <t>Tax at the statutory tax rate of 30%</t>
+  </si>
+  <si>
+    <t>Non-deductible expenses</t>
+  </si>
+  <si>
+    <t>Income tax benefit</t>
+  </si>
+  <si>
+    <t>Deferred tax - origination and reversal of temporary differences</t>
   </si>
 </sst>
 </file>
@@ -3015,6 +3047,336 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2">
+        <v>92279085</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3">
+        <v>29612233</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4">
+        <v>121891318</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5">
+        <v>85281896</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6">
+        <v>24692541</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7">
+        <v>109974437</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7">
+        <v>2022</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2">
+        <v>-481027</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>-1684214</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>-505264</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>24237</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>-481027</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7">
+        <v>2022</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G9"/>

--- a/LOGS/39b47cb4-af4d-4cc7-ac2a-0c79a3780657/main_page_service_output/notes_standard_cropped_df.xlsx
+++ b/LOGS/39b47cb4-af4d-4cc7-ac2a-0c79a3780657/main_page_service_output/notes_standard_cropped_df.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="105">
   <si>
     <t>line_item_0</t>
   </si>
@@ -78,6 +78,15 @@
     <t>Consolidated</t>
   </si>
   <si>
+    <t>Balances as above</t>
+  </si>
+  <si>
+    <t>Bank overdraft (note 18)</t>
+  </si>
+  <si>
+    <t>Balance as per statement of cash flows</t>
+  </si>
+  <si>
     <t>Trade receivables</t>
   </si>
   <si>
@@ -111,7 +120,7 @@
     <t>2022 Balance at 1 April 2022</t>
   </si>
   <si>
-    <t>Additions</t>
+    <t>2023 Additions</t>
   </si>
   <si>
     <t>Disposals</t>
@@ -884,7 +893,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C2">
         <v>4919097</v>
@@ -904,7 +913,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C3">
         <v>-511861</v>
@@ -944,7 +953,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C5">
         <v>3760498</v>
@@ -964,7 +973,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C6">
         <v>-1391972</v>
@@ -1040,7 +1049,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C2">
         <v>1627273</v>
@@ -1060,7 +1069,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C3">
         <v>1627273</v>
@@ -1113,16 +1122,16 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C2">
         <v>1574562</v>
       </c>
       <c r="D2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
@@ -1133,16 +1142,16 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C3">
         <v>165065</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -1153,16 +1162,16 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C4">
         <v>-1272783</v>
       </c>
       <c r="D4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -1173,16 +1182,16 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C5">
         <v>394509</v>
       </c>
       <c r="D5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -1193,16 +1202,16 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C6">
         <v>1311333</v>
       </c>
       <c r="D6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
@@ -1213,16 +1222,16 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C7">
         <v>1334538</v>
       </c>
       <c r="D7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
@@ -1233,16 +1242,16 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C8">
         <v>53603</v>
       </c>
       <c r="D8" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
@@ -1253,16 +1262,16 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C9">
         <v>-287150</v>
       </c>
       <c r="D9" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
@@ -1273,16 +1282,16 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C10">
         <v>-25802</v>
       </c>
       <c r="D10" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E10" t="s">
         <v>13</v>
@@ -1293,16 +1302,16 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C11">
         <v>-1112261</v>
       </c>
       <c r="D11" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E11" t="s">
         <v>13</v>
@@ -1313,16 +1322,16 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C12">
         <v>39187</v>
       </c>
       <c r="D12" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E12" t="s">
         <v>13</v>
@@ -1333,16 +1342,16 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C13">
         <v>139128</v>
       </c>
       <c r="D13" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E13" t="s">
         <v>13</v>
@@ -1353,16 +1362,16 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C14">
         <v>2313929</v>
       </c>
       <c r="D14" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E14" t="s">
         <v>13</v>
@@ -1373,16 +1382,16 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C15">
         <v>1832902</v>
       </c>
       <c r="D15" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E15" t="s">
         <v>13</v>
@@ -1393,16 +1402,16 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B16" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C16">
         <v>481027</v>
       </c>
       <c r="D16" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E16" t="s">
         <v>13</v>
@@ -1413,16 +1422,16 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B17" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C17">
         <v>2313929</v>
       </c>
       <c r="D17" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E17" t="s">
         <v>13</v>
@@ -1433,16 +1442,16 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C18">
         <v>1060069</v>
       </c>
       <c r="D18" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E18" t="s">
         <v>13</v>
@@ -1453,16 +1462,16 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C19">
         <v>141489</v>
       </c>
       <c r="D19" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E19" t="s">
         <v>13</v>
@@ -1473,16 +1482,16 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C20">
         <v>505437</v>
       </c>
       <c r="D20" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E20" t="s">
         <v>13</v>
@@ -1493,16 +1502,16 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B21" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C21">
         <v>535482</v>
       </c>
       <c r="D21" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E21" t="s">
         <v>13</v>
@@ -1513,16 +1522,16 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B22" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C22">
         <v>1406479</v>
       </c>
       <c r="D22" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E22" t="s">
         <v>13</v>
@@ -1533,16 +1542,16 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B23" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C23">
         <v>-440175</v>
       </c>
       <c r="D23" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E23" t="s">
         <v>13</v>
@@ -1553,16 +1562,16 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B24" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C24">
         <v>44879</v>
       </c>
       <c r="D24" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E24" t="s">
         <v>13</v>
@@ -1573,16 +1582,16 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B25" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C25">
         <v>-452414</v>
       </c>
       <c r="D25" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E25" t="s">
         <v>13</v>
@@ -1593,16 +1602,16 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C26">
         <v>-175722</v>
       </c>
       <c r="D26" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E26" t="s">
         <v>13</v>
@@ -1613,16 +1622,16 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B27" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C27">
         <v>-999673</v>
       </c>
       <c r="D27" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E27" t="s">
         <v>13</v>
@@ -1633,16 +1642,16 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B28" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C28">
         <v>-71204</v>
       </c>
       <c r="D28" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E28" t="s">
         <v>13</v>
@@ -1653,16 +1662,16 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B29" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C29">
         <v>278255</v>
       </c>
       <c r="D29" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E29" t="s">
         <v>13</v>
@@ -1673,16 +1682,16 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B30" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C30">
         <v>1832902</v>
       </c>
       <c r="D30" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E30" t="s">
         <v>13</v>
@@ -1693,16 +1702,16 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C31">
         <v>1079731</v>
       </c>
       <c r="D31" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E31" t="s">
         <v>13</v>
@@ -1713,16 +1722,16 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C32">
         <v>753171</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E32" t="s">
         <v>13</v>
@@ -1733,16 +1742,16 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B33" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C33">
         <v>1832902</v>
       </c>
       <c r="D33" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E33" t="s">
         <v>13</v>
@@ -1789,7 +1798,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C2">
         <v>13112931</v>
@@ -1809,7 +1818,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C3">
         <v>699479</v>
@@ -1829,7 +1838,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C4">
         <v>168669</v>
@@ -1849,7 +1858,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C5">
         <v>25141</v>
@@ -1869,7 +1878,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C6">
         <v>8965</v>
@@ -1889,7 +1898,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C7">
         <v>71827</v>
@@ -1909,7 +1918,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C8">
         <v>496612</v>
@@ -1949,7 +1958,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C10">
         <v>11727321</v>
@@ -1969,7 +1978,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C11">
         <v>678886</v>
@@ -1989,7 +1998,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C12">
         <v>204870</v>
@@ -2009,7 +2018,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C13">
         <v>103589</v>
@@ -2029,7 +2038,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C14">
         <v>11467</v>
@@ -2049,7 +2058,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C15">
         <v>24284</v>
@@ -2069,7 +2078,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C16">
         <v>391540</v>
@@ -2145,7 +2154,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -2165,7 +2174,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C3">
         <v>1300741</v>
@@ -2221,7 +2230,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C2">
         <v>3560750</v>
@@ -2241,7 +2250,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C3">
         <v>445043</v>
@@ -2281,7 +2290,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C5">
         <v>3883702</v>
@@ -2301,7 +2310,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C6">
         <v>390624</v>
@@ -2377,7 +2386,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C2">
         <v>3500000</v>
@@ -2397,7 +2406,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C3">
         <v>4500000</v>
@@ -2453,7 +2462,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C2">
         <v>3700183</v>
@@ -2473,7 +2482,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C3">
         <v>319286</v>
@@ -2493,7 +2502,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C4">
         <v>-5705</v>
@@ -2533,10 +2542,10 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C6">
         <v>777823</v>
@@ -2556,10 +2565,10 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C7">
         <v>3240264</v>
@@ -2579,10 +2588,10 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B8" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C8">
         <v>474620</v>
@@ -2605,7 +2614,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C9">
         <v>4492707</v>
@@ -2625,7 +2634,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C10">
         <v>1780907</v>
@@ -2645,7 +2654,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C11">
         <v>1228670</v>
@@ -2665,7 +2674,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C12">
         <v>-40759</v>
@@ -2705,10 +2714,10 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B14" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C14">
         <v>1929062</v>
@@ -2728,10 +2737,10 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B15" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C15">
         <v>2055386</v>
@@ -2751,10 +2760,10 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B16" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C16">
         <v>913432</v>
@@ -2777,7 +2786,7 @@
         <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C17">
         <v>4897880</v>
@@ -2813,10 +2822,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -2839,13 +2848,13 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E2">
         <v>10014754</v>
@@ -2865,13 +2874,13 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E3">
         <v>5014754</v>
@@ -2924,13 +2933,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C2">
         <v>5146496</v>
       </c>
       <c r="D2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
@@ -2941,13 +2950,13 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C3">
         <v>-1203187</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -2958,13 +2967,13 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C4">
         <v>3943309</v>
       </c>
       <c r="D4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -2975,13 +2984,13 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C5">
         <v>6940815</v>
       </c>
       <c r="D5" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -2992,13 +3001,13 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C6">
         <v>-1794319</v>
       </c>
       <c r="D6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
@@ -3009,13 +3018,13 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C7">
         <v>5146496</v>
       </c>
       <c r="D7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
@@ -3031,15 +3040,111 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2">
+        <v>3813586</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4">
+        <v>3813586</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>1543537</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <v>-1300741</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7">
+        <v>242796</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7">
+        <v>2022</v>
       </c>
     </row>
   </sheetData>
@@ -3080,7 +3185,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C2">
         <v>92279085</v>
@@ -3100,7 +3205,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C3">
         <v>29612233</v>
@@ -3120,7 +3225,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C4">
         <v>121891318</v>
@@ -3140,7 +3245,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C5">
         <v>85281896</v>
@@ -3160,7 +3265,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C6">
         <v>24692541</v>
@@ -3180,7 +3285,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C7">
         <v>109974437</v>
@@ -3236,10 +3341,10 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C2">
         <v>-481027</v>
@@ -3259,10 +3364,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>104</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -3282,10 +3387,10 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>104</v>
       </c>
       <c r="C4">
         <v>-1684214</v>
@@ -3305,10 +3410,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>104</v>
       </c>
       <c r="C5">
         <v>-505264</v>
@@ -3328,10 +3433,10 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>104</v>
       </c>
       <c r="C6">
         <v>24237</v>
@@ -3351,10 +3456,10 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>104</v>
       </c>
       <c r="C7">
         <v>-481027</v>
@@ -3410,7 +3515,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C2">
         <v>19290507</v>
@@ -3430,7 +3535,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C3">
         <v>957167</v>
@@ -3450,7 +3555,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C4">
         <v>-550217</v>
@@ -3490,7 +3595,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C6">
         <v>20697953</v>
@@ -3510,7 +3615,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C7">
         <v>1508049</v>
@@ -3530,7 +3635,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C8">
         <v>-471631</v>
@@ -3606,7 +3711,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -3626,7 +3731,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C3">
         <v>239846</v>
@@ -3682,7 +3787,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C2">
         <v>3707538</v>
@@ -3702,7 +3807,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C3">
         <v>3332245</v>
@@ -3758,7 +3863,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -3778,7 +3883,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C3">
         <v>365183</v>
@@ -3834,7 +3939,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C2">
         <v>1842144</v>
@@ -3854,7 +3959,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C3">
         <v>234994</v>
@@ -3874,7 +3979,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3896,9 +4001,6 @@
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
       <c r="C5">
         <v>2077138</v>
       </c>
@@ -3917,7 +4019,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C6">
         <v>828405</v>
@@ -3937,7 +4039,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C7">
         <v>116659</v>
@@ -3957,7 +4059,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C8">
         <v>176951</v>
@@ -3977,9 +4079,6 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
         <v>9</v>
       </c>
       <c r="C9">
@@ -4031,7 +4130,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
@@ -4039,10 +4138,10 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C2">
         <v>126859</v>
@@ -4051,13 +4150,13 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H2">
         <v>2022</v>
@@ -4065,10 +4164,10 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C3">
         <v>243913</v>
@@ -4077,13 +4176,13 @@
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H3">
         <v>2023</v>
@@ -4091,10 +4190,10 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4103,13 +4202,13 @@
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H4">
         <v>2023</v>
@@ -4117,10 +4216,10 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C5">
         <v>-25372</v>
@@ -4129,13 +4228,13 @@
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H5">
         <v>2023</v>
@@ -4143,10 +4242,10 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C6">
         <v>345400</v>
@@ -4155,13 +4254,13 @@
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H6">
         <v>2023</v>
@@ -4169,25 +4268,25 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C7">
         <v>390991</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H7">
         <v>2022</v>
@@ -4195,25 +4294,25 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C8">
         <v>48062</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G8" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H8">
         <v>2023</v>
@@ -4221,25 +4320,25 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G9" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H9">
         <v>2023</v>
@@ -4247,25 +4346,25 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C10">
         <v>-66883</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G10" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H10">
         <v>2023</v>
@@ -4273,25 +4372,25 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C11">
         <v>372170</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F11" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G11" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H11">
         <v>2023</v>
@@ -4299,25 +4398,25 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C12">
         <v>94524</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E12" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G12" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H12">
         <v>2022</v>
@@ -4325,25 +4424,25 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C13">
         <v>42101</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E13" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F13" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G13" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H13">
         <v>2023</v>
@@ -4351,25 +4450,25 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E14" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G14" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H14">
         <v>2023</v>
@@ -4377,25 +4476,25 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C15">
         <v>-22365</v>
       </c>
       <c r="D15" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E15" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G15" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H15">
         <v>2023</v>
@@ -4403,25 +4502,25 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C16">
         <v>114260</v>
       </c>
       <c r="D16" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F16" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G16" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H16">
         <v>2023</v>
@@ -4429,25 +4528,25 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C17">
         <v>4147284</v>
       </c>
       <c r="D17" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E17" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F17" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G17" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H17">
         <v>2022</v>
@@ -4455,25 +4554,25 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E18" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F18" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G18" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H18">
         <v>2023</v>
@@ -4481,25 +4580,25 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C19">
         <v>-203657</v>
       </c>
       <c r="D19" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E19" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F19" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G19" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H19">
         <v>2023</v>
@@ -4507,25 +4606,25 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C20">
         <v>-754331</v>
       </c>
       <c r="D20" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E20" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G20" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H20">
         <v>2023</v>
@@ -4533,25 +4632,25 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C21">
         <v>3189296</v>
       </c>
       <c r="D21" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E21" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F21" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G21" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H21">
         <v>2023</v>
@@ -4559,25 +4658,25 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C22">
         <v>1464211</v>
       </c>
       <c r="D22" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E22" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F22" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G22" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H22">
         <v>2022</v>
@@ -4585,25 +4684,25 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C23">
         <v>621747</v>
       </c>
       <c r="D23" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E23" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F23" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G23" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H23">
         <v>2023</v>
@@ -4611,25 +4710,25 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E24" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F24" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H24">
         <v>2023</v>
@@ -4637,25 +4736,25 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C25">
         <v>-517517</v>
       </c>
       <c r="D25" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E25" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F25" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G25" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H25">
         <v>2023</v>
@@ -4663,25 +4762,25 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C26">
         <v>1568441</v>
       </c>
       <c r="D26" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E26" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F26" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G26" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H26">
         <v>2023</v>
@@ -4689,10 +4788,10 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C27">
         <v>60996</v>
@@ -4701,13 +4800,13 @@
         <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F27" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G27" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H27">
         <v>2022</v>
@@ -4715,10 +4814,10 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -4727,13 +4826,13 @@
         <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F28" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G28" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H28">
         <v>2023</v>
@@ -4741,10 +4840,10 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -4753,13 +4852,13 @@
         <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F29" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G29" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H29">
         <v>2023</v>
@@ -4767,10 +4866,10 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C30">
         <v>-21078</v>
@@ -4779,13 +4878,13 @@
         <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F30" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G30" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H30">
         <v>2023</v>
@@ -4793,10 +4892,10 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C31">
         <v>39918</v>
@@ -4805,13 +4904,13 @@
         <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F31" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G31" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H31">
         <v>2023</v>
@@ -4819,10 +4918,10 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B32" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C32">
         <v>6284865</v>
@@ -4834,10 +4933,10 @@
         <v>9</v>
       </c>
       <c r="F32" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G32" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H32">
         <v>2022</v>
@@ -4845,10 +4944,10 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B33" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C33">
         <v>955823</v>
@@ -4860,10 +4959,10 @@
         <v>9</v>
       </c>
       <c r="F33" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G33" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H33">
         <v>2023</v>
@@ -4871,10 +4970,10 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B34" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C34">
         <v>-203657</v>
@@ -4886,10 +4985,10 @@
         <v>9</v>
       </c>
       <c r="F34" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G34" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H34">
         <v>2023</v>
@@ -4897,10 +4996,10 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B35" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C35">
         <v>-1407546</v>
@@ -4912,10 +5011,10 @@
         <v>9</v>
       </c>
       <c r="F35" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G35" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H35">
         <v>2023</v>
@@ -4923,10 +5022,10 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B36" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C36">
         <v>5629485</v>
@@ -4938,10 +5037,10 @@
         <v>9</v>
       </c>
       <c r="F36" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G36" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H36">
         <v>2023</v>
@@ -4985,7 +5084,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C2">
         <v>676749</v>
@@ -5005,7 +5104,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C3">
         <v>-331349</v>
@@ -5045,7 +5144,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C5">
         <v>681110</v>
@@ -5065,7 +5164,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C6">
         <v>-308940</v>
@@ -5105,7 +5204,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C8">
         <v>270219</v>
@@ -5125,7 +5224,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C9">
         <v>-155959</v>
@@ -5165,7 +5264,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C11">
         <v>8895209</v>
@@ -5185,7 +5284,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C12">
         <v>-5705913</v>
@@ -5225,7 +5324,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C14">
         <v>4272099</v>
@@ -5245,7 +5344,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C15">
         <v>-2703658</v>
@@ -5285,7 +5384,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C17">
         <v>411973</v>
@@ -5305,7 +5404,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C18">
         <v>-372055</v>
@@ -5365,7 +5464,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C21">
         <v>432837</v>
@@ -5385,7 +5484,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C22">
         <v>-305978</v>
@@ -5425,7 +5524,7 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C24">
         <v>633048</v>
@@ -5445,7 +5544,7 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C25">
         <v>-242057</v>
@@ -5485,7 +5584,7 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C27">
         <v>228118</v>
@@ -5505,7 +5604,7 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C28">
         <v>-133594</v>
@@ -5545,7 +5644,7 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C30">
         <v>9840278</v>
@@ -5565,7 +5664,7 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C31">
         <v>-5692994</v>
@@ -5605,7 +5704,7 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C33">
         <v>3650352</v>
@@ -5625,7 +5724,7 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C34">
         <v>-2186141</v>
@@ -5665,7 +5764,7 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C36">
         <v>411973</v>
@@ -5685,7 +5784,7 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C37">
         <v>-350977</v>
